--- a/assets/liste_assets.xlsx
+++ b/assets/liste_assets.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hugo\Documents\GitHub\GGJ2025\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11212CCD-C93C-49C3-BA4C-AED365C61099}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38A7B129-BDC9-4194-8497-D7BAE40D01B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3765" yWindow="3765" windowWidth="21600" windowHeight="11835" xr2:uid="{A8DC3BAB-7B33-4124-A80D-9D66554FFA5C}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="20">
   <si>
     <t>Asset</t>
   </si>
@@ -93,6 +93,9 @@
   </si>
   <si>
     <t>Done (sketch)</t>
+  </si>
+  <si>
+    <t>Background du décor 1</t>
   </si>
 </sst>
 </file>
@@ -485,10 +488,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6736C7E7-6F83-477A-A4BB-FA20512FC671}">
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -517,16 +520,16 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>4</v>
       </c>
       <c r="B4" t="s">
         <v>16</v>
@@ -534,31 +537,34 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>6</v>
+      <c r="B7" t="s">
+        <v>16</v>
       </c>
       <c r="G7" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>7</v>
+      <c r="A8" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="G8" s="1"/>
       <c r="H8">
@@ -566,8 +572,11 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>8</v>
+      <c r="A9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>16</v>
       </c>
       <c r="G9" s="2"/>
       <c r="H9">
@@ -576,7 +585,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="G10" s="3"/>
       <c r="H10">
@@ -584,27 +593,44 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>15</v>
+      <c r="A11" s="3" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
+      </c>
+      <c r="B12" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
+      </c>
+      <c r="B13" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
         <v>11</v>
       </c>
     </row>

--- a/assets/liste_assets.xlsx
+++ b/assets/liste_assets.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hugo\Documents\GitHub\GGJ2025\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38A7B129-BDC9-4194-8497-D7BAE40D01B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17FDD32A-D7CB-4842-AECF-B9E44D03DE61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3765" yWindow="3765" windowWidth="21600" windowHeight="11835" xr2:uid="{A8DC3BAB-7B33-4124-A80D-9D66554FFA5C}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="21">
   <si>
     <t>Asset</t>
   </si>
@@ -96,6 +96,9 @@
   </si>
   <si>
     <t>Background du décor 1</t>
+  </si>
+  <si>
+    <t>Ptite vidéo d'intro ?</t>
   </si>
 </sst>
 </file>
@@ -111,7 +114,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -136,6 +139,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -149,11 +158,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -488,10 +498,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6736C7E7-6F83-477A-A4BB-FA20512FC671}">
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -566,6 +576,9 @@
       <c r="A8" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="B8" t="s">
+        <v>16</v>
+      </c>
       <c r="G8" s="1"/>
       <c r="H8">
         <v>1</v>
@@ -587,6 +600,9 @@
       <c r="A10" s="3" t="s">
         <v>8</v>
       </c>
+      <c r="B10" t="s">
+        <v>16</v>
+      </c>
       <c r="G10" s="3"/>
       <c r="H10">
         <v>3</v>
@@ -596,6 +612,13 @@
       <c r="A11" s="3" t="s">
         <v>14</v>
       </c>
+      <c r="B11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G11" s="4"/>
+      <c r="H11">
+        <v>4</v>
+      </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
@@ -632,6 +655,14 @@
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>11</v>
+      </c>
+      <c r="B16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/assets/liste_assets.xlsx
+++ b/assets/liste_assets.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hugo\Documents\GitHub\GGJ2025\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17FDD32A-D7CB-4842-AECF-B9E44D03DE61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98FB59F1-11AC-4E7E-A87E-1F2F563A6C90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3765" yWindow="3765" windowWidth="21600" windowHeight="11835" xr2:uid="{A8DC3BAB-7B33-4124-A80D-9D66554FFA5C}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="25">
   <si>
     <t>Asset</t>
   </si>
@@ -99,6 +99,18 @@
   </si>
   <si>
     <t>Ptite vidéo d'intro ?</t>
+  </si>
+  <si>
+    <t>Icones</t>
+  </si>
+  <si>
+    <t>Background du background</t>
+  </si>
+  <si>
+    <t>Ecran de fin</t>
+  </si>
+  <si>
+    <t>Crédits</t>
   </si>
 </sst>
 </file>
@@ -498,15 +510,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6736C7E7-6F83-477A-A4BB-FA20512FC671}">
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="1" max="1" width="26.85546875" customWidth="1"/>
     <col min="2" max="2" width="13" customWidth="1"/>
   </cols>
   <sheetData>
@@ -661,7 +673,27 @@
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
+      <c r="A17" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
         <v>20</v>
       </c>
     </row>
